--- a/q1/foodconsumption.xlsx
+++ b/q1/foodconsumption.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olw09\karthikcase\descrete-optimization\food\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olw09\karthikcase\descrete-optimization\q1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9282F249-2129-4B2E-B429-DA50126F82CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A61AD6-87C8-437C-842D-E1CA37EF10A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,7 +478,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,7 +536,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="1">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1">
         <v>5</v>
@@ -550,11 +550,10 @@
         <v>20</v>
       </c>
       <c r="C4" s="1">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D22" si="1">B4-8</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1">
         <v>7</v>
@@ -568,10 +567,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D4:D22" si="1">B5-8</f>
         <v>12</v>
       </c>
       <c r="E5" s="1">
@@ -586,11 +585,10 @@
         <v>20</v>
       </c>
       <c r="C6" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -607,7 +605,6 @@
         <v>15</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E7" s="1">
@@ -622,11 +619,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="1">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
@@ -661,8 +657,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1">
         <v>6</v>
@@ -679,8 +674,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1">
         <v>7</v>
@@ -715,8 +709,7 @@
         <v>15</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E13" s="1">
         <v>3</v>
@@ -730,7 +723,7 @@
         <v>20</v>
       </c>
       <c r="C14" s="1">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="1"/>
@@ -748,11 +741,10 @@
         <v>20</v>
       </c>
       <c r="C15" s="1">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -769,8 +761,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E16" s="1">
         <v>3</v>
@@ -784,11 +775,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1">
         <v>5</v>
@@ -802,10 +792,9 @@
         <v>20</v>
       </c>
       <c r="C18" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E18" s="1">
@@ -823,8 +812,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E19" s="1">
         <v>6</v>
@@ -838,11 +826,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E20" s="1">
         <v>5</v>
@@ -859,8 +846,7 @@
         <v>15</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E21" s="1">
         <v>4</v>
